--- a/Team-Data/2014-15/2-11-2014-15.xlsx
+++ b/Team-Data/2014-15/2-11-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,37 +733,37 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" t="n">
         <v>43</v>
       </c>
       <c r="F2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>0.796</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="H2" t="n">
         <v>48.2</v>
       </c>
       <c r="I2" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J2" t="n">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0.471</v>
+        <v>0.472</v>
       </c>
       <c r="L2" t="n">
         <v>9.9</v>
       </c>
       <c r="M2" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="N2" t="n">
-        <v>0.389</v>
+        <v>0.393</v>
       </c>
       <c r="O2" t="n">
         <v>17.5</v>
@@ -705,25 +772,25 @@
         <v>22.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.775</v>
+        <v>0.778</v>
       </c>
       <c r="R2" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="S2" t="n">
-        <v>32.6</v>
+        <v>32.4</v>
       </c>
       <c r="T2" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U2" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="V2" t="n">
         <v>14</v>
       </c>
       <c r="W2" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X2" t="n">
         <v>4.6</v>
@@ -732,19 +799,19 @@
         <v>4.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.4</v>
+        <v>103.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -756,7 +823,7 @@
         <v>2</v>
       </c>
       <c r="AH2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI2" t="n">
         <v>10</v>
@@ -765,7 +832,7 @@
         <v>26</v>
       </c>
       <c r="AK2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL2" t="n">
         <v>4</v>
@@ -777,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>
@@ -789,7 +856,7 @@
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AT2" t="n">
         <v>27</v>
@@ -801,7 +868,7 @@
         <v>11</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
         <v>16</v>
@@ -810,7 +877,7 @@
         <v>13</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-11-2014-15</t>
+          <t>2015-02-11</t>
         </is>
       </c>
     </row>
@@ -848,61 +915,61 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" t="n">
         <v>31</v>
       </c>
       <c r="G3" t="n">
-        <v>0.392</v>
+        <v>0.38</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>39.1</v>
+        <v>39.3</v>
       </c>
       <c r="J3" t="n">
-        <v>87.7</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.446</v>
+        <v>0.448</v>
       </c>
       <c r="L3" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M3" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="N3" t="n">
         <v>0.327</v>
       </c>
       <c r="O3" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="P3" t="n">
         <v>19.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.755</v>
+        <v>0.751</v>
       </c>
       <c r="R3" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S3" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T3" t="n">
-        <v>43.8</v>
+        <v>43.5</v>
       </c>
       <c r="U3" t="n">
         <v>24.5</v>
       </c>
       <c r="V3" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W3" t="n">
         <v>8</v>
@@ -914,13 +981,13 @@
         <v>5.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.8</v>
+        <v>101</v>
       </c>
       <c r="AC3" t="n">
         <v>-1.5</v>
@@ -929,31 +996,31 @@
         <v>29</v>
       </c>
       <c r="AE3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
         <v>19</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH3" t="n">
         <v>14</v>
       </c>
       <c r="AI3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ3" t="n">
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL3" t="n">
         <v>13</v>
       </c>
       <c r="AM3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN3" t="n">
         <v>24</v>
@@ -965,22 +1032,22 @@
         <v>28</v>
       </c>
       <c r="AQ3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AS3" t="n">
         <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW3" t="n">
         <v>10</v>
@@ -992,7 +1059,7 @@
         <v>23</v>
       </c>
       <c r="AZ3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BA3" t="n">
         <v>30</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-11-2014-15</t>
+          <t>2015-02-11</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-4</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
@@ -1120,7 +1187,7 @@
         <v>19</v>
       </c>
       <c r="AH4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
         <v>23</v>
@@ -1129,7 +1196,7 @@
         <v>25</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL4" t="n">
         <v>25</v>
@@ -1141,13 +1208,13 @@
         <v>27</v>
       </c>
       <c r="AO4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP4" t="n">
         <v>20</v>
       </c>
       <c r="AQ4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR4" t="n">
         <v>26</v>
@@ -1177,7 +1244,7 @@
         <v>15</v>
       </c>
       <c r="BA4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB4" t="n">
         <v>26</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-11-2014-15</t>
+          <t>2015-02-11</t>
         </is>
       </c>
     </row>
@@ -1290,16 +1357,16 @@
         <v>-2.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH5" t="n">
         <v>3</v>
@@ -1329,10 +1396,10 @@
         <v>13</v>
       </c>
       <c r="AQ5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS5" t="n">
         <v>5</v>
@@ -1353,13 +1420,13 @@
         <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
         <v>4</v>
       </c>
       <c r="BA5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB5" t="n">
         <v>27</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-11-2014-15</t>
+          <t>2015-02-11</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>2.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
@@ -1535,10 +1602,10 @@
         <v>1</v>
       </c>
       <c r="AY6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA6" t="n">
         <v>3</v>
@@ -1547,7 +1614,7 @@
         <v>10</v>
       </c>
       <c r="BC6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-11-2014-15</t>
+          <t>2015-02-11</t>
         </is>
       </c>
     </row>
@@ -1576,43 +1643,43 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" t="n">
         <v>21</v>
       </c>
       <c r="G7" t="n">
-        <v>0.611</v>
+        <v>0.604</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J7" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L7" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="M7" t="n">
         <v>25.5</v>
       </c>
       <c r="N7" t="n">
-        <v>0.355</v>
+        <v>0.354</v>
       </c>
       <c r="O7" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P7" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q7" t="n">
         <v>0.753</v>
@@ -1627,7 +1694,7 @@
         <v>42.7</v>
       </c>
       <c r="U7" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="V7" t="n">
         <v>13.9</v>
@@ -1636,7 +1703,7 @@
         <v>7.3</v>
       </c>
       <c r="X7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y7" t="n">
         <v>4.8</v>
@@ -1648,34 +1715,34 @@
         <v>20.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>102.2</v>
+        <v>102</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
         <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
         <v>22</v>
       </c>
       <c r="AK7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL7" t="n">
         <v>8</v>
@@ -1690,16 +1757,16 @@
         <v>8</v>
       </c>
       <c r="AP7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AR7" t="n">
         <v>10</v>
       </c>
       <c r="AS7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT7" t="n">
         <v>18</v>
@@ -1708,7 +1775,7 @@
         <v>12</v>
       </c>
       <c r="AV7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW7" t="n">
         <v>18</v>
@@ -1717,7 +1784,7 @@
         <v>25</v>
       </c>
       <c r="AY7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ7" t="n">
         <v>3</v>
@@ -1729,7 +1796,7 @@
         <v>9</v>
       </c>
       <c r="BC7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-11-2014-15</t>
+          <t>2015-02-11</t>
         </is>
       </c>
     </row>
@@ -1761,40 +1828,40 @@
         <v>54</v>
       </c>
       <c r="E8" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" t="n">
-        <v>0.667</v>
+        <v>0.648</v>
       </c>
       <c r="H8" t="n">
         <v>48.6</v>
       </c>
       <c r="I8" t="n">
-        <v>40</v>
+        <v>40.2</v>
       </c>
       <c r="J8" t="n">
         <v>86.09999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.465</v>
+        <v>0.466</v>
       </c>
       <c r="L8" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="N8" t="n">
-        <v>0.357</v>
+        <v>0.358</v>
       </c>
       <c r="O8" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P8" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="Q8" t="n">
         <v>0.756</v>
@@ -1803,16 +1870,16 @@
         <v>10.8</v>
       </c>
       <c r="S8" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U8" t="n">
         <v>23.1</v>
       </c>
       <c r="V8" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="W8" t="n">
         <v>8.1</v>
@@ -1830,16 +1897,16 @@
         <v>21.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.5</v>
+        <v>106.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AD8" t="n">
         <v>2</v>
       </c>
       <c r="AE8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF8" t="n">
         <v>7</v>
@@ -1848,28 +1915,28 @@
         <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL8" t="n">
         <v>6</v>
       </c>
-      <c r="AL8" t="n">
-        <v>5</v>
-      </c>
       <c r="AM8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP8" t="n">
         <v>19</v>
@@ -1878,13 +1945,13 @@
         <v>15</v>
       </c>
       <c r="AR8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1899,7 +1966,7 @@
         <v>10</v>
       </c>
       <c r="AY8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ8" t="n">
         <v>14</v>
@@ -1908,7 +1975,7 @@
         <v>2</v>
       </c>
       <c r="BB8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-11-2014-15</t>
+          <t>2015-02-11</t>
         </is>
       </c>
     </row>
@@ -2018,34 +2085,34 @@
         <v>-3.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF9" t="n">
         <v>22</v>
       </c>
-      <c r="AF9" t="n">
-        <v>21</v>
-      </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="n">
         <v>5</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL9" t="n">
         <v>15</v>
       </c>
       <c r="AM9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN9" t="n">
         <v>28</v>
@@ -2054,13 +2121,13 @@
         <v>7</v>
       </c>
       <c r="AP9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR9" t="n">
         <v>5</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>4</v>
       </c>
       <c r="AS9" t="n">
         <v>10</v>
@@ -2069,13 +2136,13 @@
         <v>6</v>
       </c>
       <c r="AU9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AV9" t="n">
         <v>12</v>
       </c>
       <c r="AW9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX9" t="n">
         <v>13</v>
@@ -2087,10 +2154,10 @@
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC9" t="n">
         <v>22</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-11-2014-15</t>
+          <t>2015-02-11</t>
         </is>
       </c>
     </row>
@@ -2122,64 +2189,64 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" t="n">
         <v>21</v>
       </c>
       <c r="F10" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" t="n">
-        <v>0.389</v>
+        <v>0.396</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J10" t="n">
-        <v>85.40000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="K10" t="n">
-        <v>0.428</v>
+        <v>0.429</v>
       </c>
       <c r="L10" t="n">
         <v>8.6</v>
       </c>
       <c r="M10" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.344</v>
+        <v>0.343</v>
       </c>
       <c r="O10" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P10" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q10" t="n">
         <v>0.712</v>
       </c>
       <c r="R10" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S10" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T10" t="n">
-        <v>45.2</v>
+        <v>45.4</v>
       </c>
       <c r="U10" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V10" t="n">
         <v>13.7</v>
       </c>
       <c r="W10" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X10" t="n">
         <v>4.5</v>
@@ -2188,19 +2255,19 @@
         <v>4.9</v>
       </c>
       <c r="Z10" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA10" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.3</v>
+        <v>98.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.5</v>
+        <v>-1.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
         <v>19</v>
@@ -2209,7 +2276,7 @@
         <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH10" t="n">
         <v>20</v>
@@ -2245,28 +2312,28 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT10" t="n">
         <v>4</v>
       </c>
       <c r="AU10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV10" t="n">
         <v>8</v>
       </c>
       <c r="AW10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX10" t="n">
         <v>17</v>
       </c>
       <c r="AY10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA10" t="n">
         <v>21</v>
@@ -2275,7 +2342,7 @@
         <v>21</v>
       </c>
       <c r="BC10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-11-2014-15</t>
+          <t>2015-02-11</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" t="n">
         <v>9</v>
       </c>
       <c r="G11" t="n">
-        <v>0.824</v>
+        <v>0.82</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
@@ -2322,25 +2389,25 @@
         <v>41.8</v>
       </c>
       <c r="J11" t="n">
-        <v>87</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="K11" t="n">
         <v>0.481</v>
       </c>
       <c r="L11" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="M11" t="n">
         <v>27.1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.384</v>
+        <v>0.387</v>
       </c>
       <c r="O11" t="n">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="P11" t="n">
-        <v>21.4</v>
+        <v>21.7</v>
       </c>
       <c r="Q11" t="n">
         <v>0.774</v>
@@ -2349,13 +2416,13 @@
         <v>10.4</v>
       </c>
       <c r="S11" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="T11" t="n">
-        <v>45.1</v>
+        <v>45</v>
       </c>
       <c r="U11" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="V11" t="n">
         <v>14.9</v>
@@ -2367,19 +2434,19 @@
         <v>6.1</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z11" t="n">
         <v>19.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>110.6</v>
+        <v>110.9</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="AD11" t="n">
         <v>29</v>
@@ -2409,13 +2476,13 @@
         <v>2</v>
       </c>
       <c r="AM11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN11" t="n">
         <v>2</v>
       </c>
       <c r="AO11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AP11" t="n">
         <v>23</v>
@@ -2424,7 +2491,7 @@
         <v>7</v>
       </c>
       <c r="AR11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2445,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="AY11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ11" t="n">
         <v>13</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-11-2014-15</t>
+          <t>2015-02-11</t>
         </is>
       </c>
     </row>
@@ -2489,13 +2556,13 @@
         <v>52</v>
       </c>
       <c r="E12" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" t="n">
-        <v>0.673</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
@@ -2504,7 +2571,7 @@
         <v>36.9</v>
       </c>
       <c r="J12" t="n">
-        <v>84</v>
+        <v>83.7</v>
       </c>
       <c r="K12" t="n">
         <v>0.44</v>
@@ -2513,31 +2580,31 @@
         <v>11.8</v>
       </c>
       <c r="M12" t="n">
-        <v>33.7</v>
+        <v>33.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.349</v>
+        <v>0.354</v>
       </c>
       <c r="O12" t="n">
-        <v>17.4</v>
+        <v>17.7</v>
       </c>
       <c r="P12" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.72</v>
+        <v>0.717</v>
       </c>
       <c r="R12" t="n">
         <v>12.1</v>
       </c>
       <c r="S12" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T12" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U12" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V12" t="n">
         <v>16.9</v>
@@ -2555,34 +2622,34 @@
         <v>22.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>103</v>
+        <v>103.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
         <v>4</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH12" t="n">
         <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK12" t="n">
         <v>22</v>
@@ -2594,28 +2661,28 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT12" t="n">
         <v>15</v>
       </c>
       <c r="AU12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2624,7 +2691,7 @@
         <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AY12" t="n">
         <v>26</v>
@@ -2633,13 +2700,13 @@
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-11-2014-15</t>
+          <t>2015-02-11</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" t="n">
         <v>33</v>
       </c>
       <c r="G13" t="n">
-        <v>0.389</v>
+        <v>0.377</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J13" t="n">
-        <v>83.40000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="K13" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L13" t="n">
         <v>6.9</v>
@@ -2698,76 +2765,76 @@
         <v>20.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.333</v>
+        <v>0.331</v>
       </c>
       <c r="O13" t="n">
         <v>16.3</v>
       </c>
       <c r="P13" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.764</v>
+        <v>0.761</v>
       </c>
       <c r="R13" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S13" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="T13" t="n">
-        <v>44.7</v>
+        <v>44.9</v>
       </c>
       <c r="U13" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="V13" t="n">
         <v>14.4</v>
       </c>
       <c r="W13" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="X13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y13" t="n">
         <v>4.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA13" t="n">
         <v>20.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>95.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>-1.4</v>
+        <v>-1.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
       </c>
       <c r="AJ13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL13" t="n">
         <v>22</v>
@@ -2782,13 +2849,13 @@
         <v>23</v>
       </c>
       <c r="AP13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ13" t="n">
         <v>13</v>
       </c>
       <c r="AR13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS13" t="n">
         <v>4</v>
@@ -2800,28 +2867,28 @@
         <v>19</v>
       </c>
       <c r="AV13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AW13" t="n">
         <v>29</v>
       </c>
       <c r="AX13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AY13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ13" t="n">
         <v>16</v>
       </c>
       <c r="BA13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BB13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-11-2014-15</t>
+          <t>2015-02-11</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" t="n">
         <v>19</v>
       </c>
       <c r="G14" t="n">
-        <v>0.648</v>
+        <v>0.642</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2874,67 +2941,67 @@
         <v>0.472</v>
       </c>
       <c r="L14" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M14" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="N14" t="n">
-        <v>0.371</v>
+        <v>0.374</v>
       </c>
       <c r="O14" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="P14" t="n">
-        <v>25.2</v>
+        <v>24.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.738</v>
+        <v>0.742</v>
       </c>
       <c r="R14" t="n">
         <v>9.5</v>
       </c>
       <c r="S14" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T14" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U14" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="V14" t="n">
         <v>11.9</v>
       </c>
       <c r="W14" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X14" t="n">
         <v>4.7</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="AB14" t="n">
         <v>106.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF14" t="n">
         <v>7</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>8</v>
       </c>
       <c r="AG14" t="n">
         <v>8</v>
@@ -2943,16 +3010,16 @@
         <v>27</v>
       </c>
       <c r="AI14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ14" t="n">
         <v>19</v>
       </c>
       <c r="AK14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM14" t="n">
         <v>6</v>
@@ -2961,13 +3028,13 @@
         <v>5</v>
       </c>
       <c r="AO14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP14" t="n">
         <v>5</v>
       </c>
-      <c r="AP14" t="n">
-        <v>4</v>
-      </c>
       <c r="AQ14" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AR14" t="n">
         <v>27</v>
@@ -2997,10 +3064,10 @@
         <v>17</v>
       </c>
       <c r="BA14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-11-2014-15</t>
+          <t>2015-02-11</t>
         </is>
       </c>
     </row>
@@ -3047,10 +3114,10 @@
         <v>48.7</v>
       </c>
       <c r="I15" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J15" t="n">
-        <v>86.3</v>
+        <v>86</v>
       </c>
       <c r="K15" t="n">
         <v>0.433</v>
@@ -3059,28 +3126,28 @@
         <v>6.8</v>
       </c>
       <c r="M15" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.349</v>
+        <v>0.348</v>
       </c>
       <c r="O15" t="n">
-        <v>17.8</v>
+        <v>18.1</v>
       </c>
       <c r="P15" t="n">
-        <v>23.8</v>
+        <v>24.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.745</v>
+        <v>0.744</v>
       </c>
       <c r="R15" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S15" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="T15" t="n">
-        <v>43.8</v>
+        <v>43.5</v>
       </c>
       <c r="U15" t="n">
         <v>20.7</v>
@@ -3089,19 +3156,19 @@
         <v>13.1</v>
       </c>
       <c r="W15" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X15" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y15" t="n">
         <v>4.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.7</v>
+        <v>20</v>
       </c>
       <c r="AB15" t="n">
         <v>99.3</v>
@@ -3110,13 +3177,13 @@
         <v>-6.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
         <v>27</v>
@@ -3125,10 +3192,10 @@
         <v>3</v>
       </c>
       <c r="AI15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AK15" t="n">
         <v>27</v>
@@ -3143,43 +3210,43 @@
         <v>17</v>
       </c>
       <c r="AO15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP15" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AQ15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="n">
         <v>8</v>
       </c>
       <c r="AS15" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AT15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU15" t="n">
         <v>21</v>
       </c>
       <c r="AV15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AY15" t="n">
         <v>12</v>
       </c>
       <c r="AZ15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA15" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BB15" t="n">
         <v>19</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-11-2014-15</t>
+          <t>2015-02-11</t>
         </is>
       </c>
     </row>
@@ -3214,70 +3281,70 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" t="n">
         <v>39</v>
       </c>
       <c r="F16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" t="n">
-        <v>0.736</v>
+        <v>0.75</v>
       </c>
       <c r="H16" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I16" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="J16" t="n">
         <v>83.3</v>
       </c>
       <c r="K16" t="n">
-        <v>0.46</v>
+        <v>0.462</v>
       </c>
       <c r="L16" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M16" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.34</v>
+        <v>0.342</v>
       </c>
       <c r="O16" t="n">
         <v>18.5</v>
       </c>
       <c r="P16" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.778</v>
+        <v>0.779</v>
       </c>
       <c r="R16" t="n">
         <v>10.6</v>
       </c>
       <c r="S16" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T16" t="n">
         <v>43.2</v>
       </c>
       <c r="U16" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="V16" t="n">
         <v>13</v>
       </c>
       <c r="W16" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X16" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z16" t="n">
         <v>19.2</v>
@@ -3286,13 +3353,13 @@
         <v>20.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>100.6</v>
+        <v>100.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3304,31 +3371,31 @@
         <v>3</v>
       </c>
       <c r="AH16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK16" t="n">
         <v>7</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>8</v>
       </c>
       <c r="AL16" t="n">
         <v>28</v>
       </c>
       <c r="AM16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ16" t="n">
         <v>5</v>
@@ -3337,13 +3404,13 @@
         <v>20</v>
       </c>
       <c r="AS16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT16" t="n">
         <v>16</v>
       </c>
       <c r="AU16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV16" t="n">
         <v>5</v>
@@ -3352,7 +3419,7 @@
         <v>7</v>
       </c>
       <c r="AX16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY16" t="n">
         <v>20</v>
@@ -3361,13 +3428,13 @@
         <v>10</v>
       </c>
       <c r="BA16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB16" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BC16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-11-2014-15</t>
+          <t>2015-02-11</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" t="n">
         <v>22</v>
       </c>
       <c r="F17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G17" t="n">
-        <v>0.423</v>
+        <v>0.431</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
@@ -3414,37 +3481,37 @@
         <v>34.3</v>
       </c>
       <c r="J17" t="n">
-        <v>75.3</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L17" t="n">
         <v>7</v>
       </c>
       <c r="M17" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="O17" t="n">
         <v>17.3</v>
       </c>
       <c r="P17" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.742</v>
+        <v>0.741</v>
       </c>
       <c r="R17" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="S17" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T17" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="U17" t="n">
         <v>20.1</v>
@@ -3453,28 +3520,28 @@
         <v>14.6</v>
       </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X17" t="n">
         <v>4.2</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z17" t="n">
         <v>19.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB17" t="n">
         <v>92.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>-3.8</v>
+        <v>-3.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3495,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL17" t="n">
         <v>20</v>
@@ -3513,7 +3580,7 @@
         <v>14</v>
       </c>
       <c r="AQ17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3537,7 +3604,7 @@
         <v>24</v>
       </c>
       <c r="AY17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ17" t="n">
         <v>12</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-11-2014-15</t>
+          <t>2015-02-11</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" t="n">
         <v>23</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
@@ -3605,34 +3672,34 @@
         <v>7.2</v>
       </c>
       <c r="M18" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="N18" t="n">
-        <v>0.378</v>
+        <v>0.377</v>
       </c>
       <c r="O18" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="P18" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.773</v>
+        <v>0.772</v>
       </c>
       <c r="R18" t="n">
         <v>10.1</v>
       </c>
       <c r="S18" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="T18" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U18" t="n">
         <v>23.7</v>
       </c>
       <c r="V18" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="W18" t="n">
         <v>9.6</v>
@@ -3647,16 +3714,16 @@
         <v>22.3</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>99.2</v>
+        <v>99</v>
       </c>
       <c r="AC18" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
         <v>13</v>
@@ -3668,16 +3735,16 @@
         <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
         <v>24</v>
       </c>
       <c r="AK18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL18" t="n">
         <v>19</v>
@@ -3686,7 +3753,7 @@
         <v>25</v>
       </c>
       <c r="AN18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO18" t="n">
         <v>26</v>
@@ -3695,10 +3762,10 @@
         <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS18" t="n">
         <v>24</v>
@@ -3719,13 +3786,13 @@
         <v>12</v>
       </c>
       <c r="AY18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ18" t="n">
         <v>27</v>
       </c>
       <c r="BA18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BB18" t="n">
         <v>20</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-11-2014-15</t>
+          <t>2015-02-11</t>
         </is>
       </c>
     </row>
@@ -3760,28 +3827,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" t="n">
         <v>11</v>
       </c>
       <c r="F19" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G19" t="n">
-        <v>0.208</v>
+        <v>0.212</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J19" t="n">
         <v>84.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L19" t="n">
         <v>5.1</v>
@@ -3790,25 +3857,25 @@
         <v>14.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.339</v>
+        <v>0.338</v>
       </c>
       <c r="O19" t="n">
         <v>18.8</v>
       </c>
       <c r="P19" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q19" t="n">
         <v>0.758</v>
       </c>
       <c r="R19" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S19" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="T19" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="U19" t="n">
         <v>22.1</v>
@@ -3826,40 +3893,40 @@
         <v>5.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA19" t="n">
         <v>21.2</v>
       </c>
       <c r="AB19" t="n">
-        <v>97.5</v>
+        <v>97.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>-8.6</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
       </c>
       <c r="AF19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG19" t="n">
         <v>29</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ19" t="n">
         <v>11</v>
       </c>
       <c r="AK19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>30</v>
@@ -3880,7 +3947,7 @@
         <v>14</v>
       </c>
       <c r="AR19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS19" t="n">
         <v>30</v>
@@ -3889,7 +3956,7 @@
         <v>26</v>
       </c>
       <c r="AU19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV19" t="n">
         <v>26</v>
@@ -3898,7 +3965,7 @@
         <v>8</v>
       </c>
       <c r="AX19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY19" t="n">
         <v>28</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-11-2014-15</t>
+          <t>2015-02-11</t>
         </is>
       </c>
     </row>
@@ -3945,25 +4012,25 @@
         <v>52</v>
       </c>
       <c r="E20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>0.519</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J20" t="n">
-        <v>83.59999999999999</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L20" t="n">
         <v>6.8</v>
@@ -3972,40 +4039,40 @@
         <v>19.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.356</v>
+        <v>0.353</v>
       </c>
       <c r="O20" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P20" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.769</v>
+        <v>0.762</v>
       </c>
       <c r="R20" t="n">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="S20" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="T20" t="n">
-        <v>43.7</v>
+        <v>44.3</v>
       </c>
       <c r="U20" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V20" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W20" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X20" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="Z20" t="n">
         <v>18.8</v>
@@ -4014,43 +4081,43 @@
         <v>18.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
         <v>22</v>
       </c>
       <c r="AI20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>12</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AK20" t="n">
         <v>14</v>
       </c>
-      <c r="AK20" t="n">
-        <v>13</v>
-      </c>
       <c r="AL20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM20" t="n">
         <v>24</v>
       </c>
       <c r="AN20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO20" t="n">
         <v>15</v>
@@ -4059,28 +4126,28 @@
         <v>18</v>
       </c>
       <c r="AQ20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AS20" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AT20" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AU20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW20" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY20" t="n">
         <v>30</v>
@@ -4092,7 +4159,7 @@
         <v>27</v>
       </c>
       <c r="BB20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC20" t="n">
         <v>16</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-11-2014-15</t>
+          <t>2015-02-11</t>
         </is>
       </c>
     </row>
@@ -4124,49 +4191,49 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G21" t="n">
-        <v>0.189</v>
+        <v>0.192</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="J21" t="n">
-        <v>82.09999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K21" t="n">
-        <v>0.436</v>
+        <v>0.438</v>
       </c>
       <c r="L21" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M21" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N21" t="n">
         <v>0.359</v>
       </c>
       <c r="O21" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="P21" t="n">
-        <v>17.7</v>
+        <v>17.4</v>
       </c>
       <c r="Q21" t="n">
         <v>0.769</v>
       </c>
       <c r="R21" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S21" t="n">
         <v>29.1</v>
@@ -4175,10 +4242,10 @@
         <v>39.8</v>
       </c>
       <c r="U21" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V21" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W21" t="n">
         <v>7.2</v>
@@ -4193,16 +4260,16 @@
         <v>21.9</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>92.5</v>
+        <v>92.7</v>
       </c>
       <c r="AC21" t="n">
-        <v>-7.7</v>
+        <v>-7.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4217,22 +4284,22 @@
         <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM21" t="n">
         <v>20</v>
       </c>
       <c r="AN21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4241,10 +4308,10 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS21" t="n">
         <v>29</v>
@@ -4253,10 +4320,10 @@
         <v>29</v>
       </c>
       <c r="AU21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW21" t="n">
         <v>21</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-11-2014-15</t>
+          <t>2015-02-11</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F22" t="n">
         <v>25</v>
       </c>
       <c r="G22" t="n">
-        <v>0.528</v>
+        <v>0.519</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4324,7 +4391,7 @@
         <v>37.7</v>
       </c>
       <c r="J22" t="n">
-        <v>84.8</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K22" t="n">
         <v>0.444</v>
@@ -4333,28 +4400,28 @@
         <v>7.4</v>
       </c>
       <c r="M22" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="N22" t="n">
         <v>0.325</v>
       </c>
       <c r="O22" t="n">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="P22" t="n">
         <v>23.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.754</v>
+        <v>0.75</v>
       </c>
       <c r="R22" t="n">
         <v>11.9</v>
       </c>
       <c r="S22" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="T22" t="n">
-        <v>46.5</v>
+        <v>46.4</v>
       </c>
       <c r="U22" t="n">
         <v>20.3</v>
@@ -4366,7 +4433,7 @@
         <v>7.2</v>
       </c>
       <c r="X22" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Y22" t="n">
         <v>4.5</v>
@@ -4378,13 +4445,13 @@
         <v>20.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
         <v>15</v>
@@ -4396,7 +4463,7 @@
         <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
         <v>14</v>
@@ -4417,13 +4484,13 @@
         <v>25</v>
       </c>
       <c r="AO22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR22" t="n">
         <v>7</v>
@@ -4435,16 +4502,16 @@
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AV22" t="n">
         <v>20</v>
       </c>
       <c r="AW22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY22" t="n">
         <v>9</v>
@@ -4456,7 +4523,7 @@
         <v>18</v>
       </c>
       <c r="BB22" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BC22" t="n">
         <v>14</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-11-2014-15</t>
+          <t>2015-02-11</t>
         </is>
       </c>
     </row>
@@ -4491,13 +4558,13 @@
         <v>55</v>
       </c>
       <c r="E23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G23" t="n">
-        <v>0.309</v>
+        <v>0.291</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4506,10 +4573,10 @@
         <v>37.3</v>
       </c>
       <c r="J23" t="n">
-        <v>81.59999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L23" t="n">
         <v>6.9</v>
@@ -4521,22 +4588,22 @@
         <v>0.358</v>
       </c>
       <c r="O23" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="P23" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.735</v>
+        <v>0.733</v>
       </c>
       <c r="R23" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="S23" t="n">
         <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>40.5</v>
+        <v>40.7</v>
       </c>
       <c r="U23" t="n">
         <v>20.5</v>
@@ -4551,19 +4618,19 @@
         <v>3.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA23" t="n">
         <v>18.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.90000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.8</v>
+        <v>-6.2</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4581,13 +4648,13 @@
         <v>26</v>
       </c>
       <c r="AI23" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ23" t="n">
         <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
         <v>21</v>
@@ -4596,7 +4663,7 @@
         <v>23</v>
       </c>
       <c r="AN23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4611,7 +4678,7 @@
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT23" t="n">
         <v>28</v>
@@ -4620,7 +4687,7 @@
         <v>24</v>
       </c>
       <c r="AV23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW23" t="n">
         <v>15</v>
@@ -4629,7 +4696,7 @@
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AZ23" t="n">
         <v>21</v>
@@ -4638,7 +4705,7 @@
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-11-2014-15</t>
+          <t>2015-02-11</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-10.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,7 +4827,7 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4784,7 +4851,7 @@
         <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
@@ -4793,13 +4860,13 @@
         <v>11</v>
       </c>
       <c r="AS24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT24" t="n">
         <v>21</v>
       </c>
       <c r="AU24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4808,16 +4875,16 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY24" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ24" t="n">
         <v>22</v>
       </c>
       <c r="BA24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-11-2014-15</t>
+          <t>2015-02-11</t>
         </is>
       </c>
     </row>
@@ -4933,7 +5000,7 @@
         <v>2</v>
       </c>
       <c r="AE25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF25" t="n">
         <v>14</v>
@@ -4942,7 +5009,7 @@
         <v>14</v>
       </c>
       <c r="AH25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI25" t="n">
         <v>3</v>
@@ -4951,7 +5018,7 @@
         <v>3</v>
       </c>
       <c r="AK25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL25" t="n">
         <v>7</v>
@@ -4960,25 +5027,25 @@
         <v>5</v>
       </c>
       <c r="AN25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ25" t="n">
         <v>2</v>
       </c>
       <c r="AR25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS25" t="n">
         <v>18</v>
       </c>
       <c r="AT25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU25" t="n">
         <v>22</v>
@@ -4987,7 +5054,7 @@
         <v>22</v>
       </c>
       <c r="AW25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX25" t="n">
         <v>11</v>
@@ -4999,7 +5066,7 @@
         <v>26</v>
       </c>
       <c r="BA25" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB25" t="n">
         <v>4</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-11-2014-15</t>
+          <t>2015-02-11</t>
         </is>
       </c>
     </row>
@@ -5034,28 +5101,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" t="n">
         <v>17</v>
       </c>
       <c r="G26" t="n">
-        <v>0.679</v>
+        <v>0.673</v>
       </c>
       <c r="H26" t="n">
         <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J26" t="n">
         <v>86.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L26" t="n">
         <v>10.1</v>
@@ -5067,28 +5134,28 @@
         <v>0.362</v>
       </c>
       <c r="O26" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="P26" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.795</v>
+        <v>0.791</v>
       </c>
       <c r="R26" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S26" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="T26" t="n">
-        <v>46</v>
+        <v>45.8</v>
       </c>
       <c r="U26" t="n">
         <v>22.3</v>
       </c>
       <c r="V26" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W26" t="n">
         <v>7</v>
@@ -5100,37 +5167,37 @@
         <v>3.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AB26" t="n">
         <v>102.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI26" t="n">
         <v>9</v>
       </c>
       <c r="AJ26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK26" t="n">
         <v>19</v>
@@ -5142,7 +5209,7 @@
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
         <v>27</v>
@@ -5166,19 +5233,19 @@
         <v>9</v>
       </c>
       <c r="AV26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW26" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AX26" t="n">
         <v>9</v>
       </c>
       <c r="AY26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA26" t="n">
         <v>24</v>
@@ -5187,7 +5254,7 @@
         <v>8</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-11-2014-15</t>
+          <t>2015-02-11</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27" t="n">
         <v>18</v>
       </c>
       <c r="F27" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G27" t="n">
-        <v>0.346</v>
+        <v>0.353</v>
       </c>
       <c r="H27" t="n">
         <v>48.6</v>
@@ -5234,7 +5301,7 @@
         <v>36.1</v>
       </c>
       <c r="J27" t="n">
-        <v>80.09999999999999</v>
+        <v>80</v>
       </c>
       <c r="K27" t="n">
         <v>0.451</v>
@@ -5243,10 +5310,10 @@
         <v>5.1</v>
       </c>
       <c r="M27" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="N27" t="n">
-        <v>0.324</v>
+        <v>0.323</v>
       </c>
       <c r="O27" t="n">
         <v>22.7</v>
@@ -5258,16 +5325,16 @@
         <v>0.773</v>
       </c>
       <c r="R27" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S27" t="n">
         <v>33.7</v>
       </c>
       <c r="T27" t="n">
-        <v>44.6</v>
+        <v>44.5</v>
       </c>
       <c r="U27" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="V27" t="n">
         <v>16.4</v>
@@ -5291,16 +5358,16 @@
         <v>100</v>
       </c>
       <c r="AC27" t="n">
-        <v>-4.2</v>
+        <v>-4.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG27" t="n">
         <v>25</v>
@@ -5321,7 +5388,7 @@
         <v>29</v>
       </c>
       <c r="AM27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN27" t="n">
         <v>26</v>
@@ -5333,7 +5400,7 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR27" t="n">
         <v>14</v>
@@ -5360,13 +5427,13 @@
         <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA27" t="n">
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-11-2014-15</t>
+          <t>2015-02-11</t>
         </is>
       </c>
     </row>
@@ -5413,52 +5480,52 @@
         <v>48.9</v>
       </c>
       <c r="I28" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J28" t="n">
-        <v>83.59999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
         <v>23</v>
       </c>
       <c r="N28" t="n">
-        <v>0.361</v>
+        <v>0.364</v>
       </c>
       <c r="O28" t="n">
         <v>16.6</v>
       </c>
       <c r="P28" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="R28" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S28" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="T28" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U28" t="n">
         <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="W28" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
         <v>4.8</v>
@@ -5467,22 +5534,22 @@
         <v>19.1</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
         <v>9</v>
       </c>
       <c r="AF28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG28" t="n">
         <v>9</v>
@@ -5494,10 +5561,10 @@
         <v>13</v>
       </c>
       <c r="AJ28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5506,25 +5573,25 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="n">
         <v>22</v>
       </c>
       <c r="AQ28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT28" t="n">
         <v>12</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>5</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>10</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
@@ -5533,25 +5600,25 @@
         <v>14</v>
       </c>
       <c r="AW28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX28" t="n">
         <v>8</v>
       </c>
       <c r="AY28" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ28" t="n">
         <v>9</v>
       </c>
       <c r="BA28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB28" t="n">
         <v>14</v>
       </c>
       <c r="BC28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-11-2014-15</t>
+          <t>2015-02-11</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E29" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F29" t="n">
         <v>17</v>
       </c>
       <c r="G29" t="n">
-        <v>0.679</v>
+        <v>0.673</v>
       </c>
       <c r="H29" t="n">
         <v>48.6</v>
       </c>
       <c r="I29" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="J29" t="n">
-        <v>84</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L29" t="n">
         <v>8.9</v>
@@ -5610,16 +5677,16 @@
         <v>25.4</v>
       </c>
       <c r="N29" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="O29" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="P29" t="n">
         <v>25.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.783</v>
+        <v>0.781</v>
       </c>
       <c r="R29" t="n">
         <v>11.1</v>
@@ -5628,16 +5695,16 @@
         <v>30.8</v>
       </c>
       <c r="T29" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U29" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V29" t="n">
         <v>12.8</v>
       </c>
       <c r="W29" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X29" t="n">
         <v>4.5</v>
@@ -5646,31 +5713,31 @@
         <v>5.1</v>
       </c>
       <c r="Z29" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA29" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>105.6</v>
+        <v>105.8</v>
       </c>
       <c r="AC29" t="n">
         <v>4.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI29" t="n">
         <v>7</v>
@@ -5679,7 +5746,7 @@
         <v>13</v>
       </c>
       <c r="AK29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL29" t="n">
         <v>9</v>
@@ -5688,7 +5755,7 @@
         <v>8</v>
       </c>
       <c r="AN29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
@@ -5703,7 +5770,7 @@
         <v>12</v>
       </c>
       <c r="AS29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT29" t="n">
         <v>22</v>
@@ -5718,22 +5785,22 @@
         <v>16</v>
       </c>
       <c r="AX29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY29" t="n">
         <v>19</v>
       </c>
       <c r="AZ29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB29" t="n">
         <v>5</v>
       </c>
       <c r="BC29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-11-2014-15</t>
+          <t>2015-02-11</t>
         </is>
       </c>
     </row>
@@ -5762,61 +5829,61 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E30" t="n">
         <v>19</v>
       </c>
       <c r="F30" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G30" t="n">
-        <v>0.358</v>
+        <v>0.365</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J30" t="n">
         <v>79.7</v>
       </c>
       <c r="K30" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L30" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M30" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="N30" t="n">
-        <v>0.343</v>
+        <v>0.342</v>
       </c>
       <c r="O30" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P30" t="n">
         <v>22.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.735</v>
+        <v>0.739</v>
       </c>
       <c r="R30" t="n">
         <v>11.8</v>
       </c>
       <c r="S30" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="T30" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U30" t="n">
         <v>20.3</v>
       </c>
       <c r="V30" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W30" t="n">
         <v>7</v>
@@ -5828,25 +5895,25 @@
         <v>4.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AA30" t="n">
         <v>19.2</v>
       </c>
       <c r="AB30" t="n">
-        <v>95.7</v>
+        <v>96</v>
       </c>
       <c r="AC30" t="n">
         <v>-2.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF30" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG30" t="n">
         <v>24</v>
@@ -5855,7 +5922,7 @@
         <v>29</v>
       </c>
       <c r="AI30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ30" t="n">
         <v>29</v>
@@ -5870,16 +5937,16 @@
         <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP30" t="n">
         <v>16</v>
       </c>
       <c r="AQ30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR30" t="n">
         <v>9</v>
@@ -5891,28 +5958,28 @@
         <v>17</v>
       </c>
       <c r="AU30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV30" t="n">
         <v>25</v>
       </c>
       <c r="AW30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AX30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA30" t="n">
         <v>25</v>
       </c>
       <c r="BB30" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BC30" t="n">
         <v>20</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-11-2014-15</t>
+          <t>2015-02-11</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" t="n">
         <v>33</v>
       </c>
       <c r="F31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G31" t="n">
-        <v>0.611</v>
+        <v>0.623</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
@@ -5971,34 +6038,34 @@
         <v>6.1</v>
       </c>
       <c r="M31" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="N31" t="n">
-        <v>0.374</v>
+        <v>0.377</v>
       </c>
       <c r="O31" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="P31" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.743</v>
+        <v>0.744</v>
       </c>
       <c r="R31" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S31" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="T31" t="n">
-        <v>44.1</v>
+        <v>43.9</v>
       </c>
       <c r="U31" t="n">
         <v>24.4</v>
       </c>
       <c r="V31" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W31" t="n">
         <v>7.4</v>
@@ -6010,28 +6077,28 @@
         <v>4.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA31" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AB31" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="AC31" t="n">
         <v>2.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE31" t="n">
         <v>9</v>
       </c>
       <c r="AF31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH31" t="n">
         <v>11</v>
@@ -6040,7 +6107,7 @@
         <v>6</v>
       </c>
       <c r="AJ31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK31" t="n">
         <v>4</v>
@@ -6052,40 +6119,40 @@
         <v>27</v>
       </c>
       <c r="AN31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO31" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP31" t="n">
         <v>21</v>
       </c>
       <c r="AQ31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS31" t="n">
         <v>9</v>
       </c>
       <c r="AT31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU31" t="n">
         <v>5</v>
       </c>
       <c r="AV31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW31" t="n">
         <v>17</v>
       </c>
       <c r="AX31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ31" t="n">
         <v>19</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-11-2014-15</t>
+          <t>2015-02-11</t>
         </is>
       </c>
     </row>
